--- a/results/ALBERT/albert-base-v2_all/recipes_test_1.xlsx
+++ b/results/ALBERT/albert-base-v2_all/recipes_test_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\PycharmProjects\action-trigger-relation-extraction\results\ALBERT\albert-base-v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\PycharmProjects\action-trigger-relation-extraction\results\ALBERT\albert-base-v2_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81CBCCE-4109-471E-A681-A7317694D93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10BF179-078F-4EC8-ADF1-41742353E837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A53C0F81-A662-4346-B965-2739DD4C870C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="215">
   <si>
     <t>rel</t>
   </si>
@@ -662,7 +662,28 @@
     <t>Recall</t>
   </si>
   <si>
-    <t>F1-score</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>TOT</t>
   </si>
 </sst>
 </file>
@@ -1028,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBC3483-B4C0-4C1E-BEF2-064156117251}">
-  <dimension ref="A1:D206"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F205" sqref="F205"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="G205" sqref="G205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2646,36 +2667,93 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C203" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C204" t="s">
+        <v>61</v>
+      </c>
+      <c r="D204" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C206" t="s">
+        <v>214</v>
+      </c>
+      <c r="D206">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C207" t="s">
+        <v>209</v>
+      </c>
+      <c r="D207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C208" t="s">
+        <v>210</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C209" t="s">
+        <v>211</v>
+      </c>
+      <c r="D209">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="210" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C210" t="s">
+        <v>212</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C212" t="s">
         <v>204</v>
       </c>
-      <c r="D203">
+      <c r="D212">
         <f>199/200</f>
         <v>0.995</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C204" t="s">
+    <row r="213" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C213" t="s">
         <v>205</v>
       </c>
-      <c r="D204">
-        <v>0.995</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C205" t="s">
+      <c r="D213">
+        <f>3/3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C214" t="s">
         <v>206</v>
       </c>
-      <c r="D205">
-        <f>196/196</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C206" t="s">
-        <v>207</v>
-      </c>
-      <c r="D206">
-        <v>0.997</v>
+      <c r="D214">
+        <f>3/4</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="215" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C215" t="s">
+        <v>213</v>
+      </c>
+      <c r="D215">
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
